--- a/AAII_Financials/Quarterly/IPLDP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IPLDP_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>IPLDP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,181 +665,206 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>518900</v>
+      </c>
+      <c r="E8" s="3">
+        <v>496800</v>
+      </c>
+      <c r="F8" s="3">
         <v>596500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>441200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>555100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>494100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>547600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>474800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>525800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>472200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>527400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>420200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>450500</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>321500</v>
+      </c>
+      <c r="E9" s="3">
+        <v>317700</v>
+      </c>
+      <c r="F9" s="3">
         <v>324700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>268900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>387900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>351200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>316300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>315100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>371500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>345100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>313000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>277600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>333900</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>197400</v>
+      </c>
+      <c r="E10" s="3">
+        <v>179100</v>
+      </c>
+      <c r="F10" s="3">
         <v>271800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>172300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>167200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>142900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>231300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>159700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>154300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>127100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>214400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>142600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>116600</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -854,8 +879,10 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -892,8 +919,14 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,8 +963,14 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -968,46 +1007,58 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>85900</v>
+      </c>
+      <c r="E15" s="3">
+        <v>83300</v>
+      </c>
+      <c r="F15" s="3">
         <v>83700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>82600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>77100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>74300</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>73900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>70500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>64800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>64000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>66200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>61200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>53600</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1070,98 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>422200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>415500</v>
+      </c>
+      <c r="F17" s="3">
         <v>423000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>366700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>481600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>439700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>404500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>397100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>450200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>423000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>393600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>352100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>400900</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>96700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>81300</v>
+      </c>
+      <c r="F18" s="3">
         <v>173500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>74500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>73500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>54400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>143100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>77700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>75600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>49200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>133800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>68100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>49600</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,198 +1176,230 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2000</v>
+        <v>-900</v>
       </c>
       <c r="E20" s="3">
         <v>-1500</v>
       </c>
       <c r="F20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="H20" s="3">
         <v>-1900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-800</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-1900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-1600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>181700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>163100</v>
+      </c>
+      <c r="F21" s="3">
         <v>255200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>155600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>148700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>128100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>216500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>147500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>139600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>113200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>198100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>127700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>103100</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>24700</v>
+      </c>
+      <c r="E22" s="3">
+        <v>19400</v>
+      </c>
+      <c r="F22" s="3">
         <v>20900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>23600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>13600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>14900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>19400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>20500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>22400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>22600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>23200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>21800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>13400</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>71100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>60400</v>
+      </c>
+      <c r="F23" s="3">
         <v>150600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>49400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>58000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>38900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>123200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>56500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>52400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>26600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>108700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>44700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>36100</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>13200</v>
+      </c>
+      <c r="F24" s="3">
         <v>6900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>1900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>2100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-2300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-5900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>2300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>3100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>6000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-14300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1436,102 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>85200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>47200</v>
+      </c>
+      <c r="F26" s="3">
         <v>143700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>47500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>55900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>41200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>129100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>54200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>49300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>20600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>123000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>45300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>39800</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>82600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>44700</v>
+      </c>
+      <c r="F27" s="3">
         <v>141100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>45000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>53300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>38700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>126500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>51700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>46700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>18100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>120400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>42800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,46 +1568,58 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
+      <c r="E29" s="3">
+        <v>0</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>400</v>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
+      <c r="I29" s="3">
+        <v>400</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>-1700</v>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>-1700</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1656,14 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,84 +1700,102 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2000</v>
+        <v>900</v>
       </c>
       <c r="E32" s="3">
         <v>1500</v>
       </c>
       <c r="F32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G32" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H32" s="3">
         <v>1900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>800</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>1900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>1600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>82600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>44700</v>
+      </c>
+      <c r="F33" s="3">
         <v>141100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>45000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>53300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>39100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>126500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>51700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>46700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>16400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>120400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>42800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1832,107 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>82600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>44700</v>
+      </c>
+      <c r="F35" s="3">
         <v>141100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>45000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>53300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>39100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>126500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>51700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>46700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>16400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>120400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>42800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1947,10 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,46 +1965,54 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>9300</v>
+      </c>
+      <c r="F41" s="3">
         <v>184000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>5000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>3900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>9700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>232700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>2900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>3600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>4700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>4000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1870,160 +2049,190 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>204800</v>
+      </c>
+      <c r="E43" s="3">
+        <v>202800</v>
+      </c>
+      <c r="F43" s="3">
         <v>258300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>231700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>209500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>153500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>277300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>237200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>145900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>264900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>143500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>194700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>177200</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>123000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>123800</v>
+      </c>
+      <c r="F44" s="3">
         <v>122200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>107600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>93500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>126300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>127300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>122200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>120200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>133300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>130900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>119800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>115700</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>82800</v>
+      </c>
+      <c r="E45" s="3">
+        <v>73500</v>
+      </c>
+      <c r="F45" s="3">
         <v>56700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>55500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>48300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>82300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>78300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>69400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>61300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>74200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>78200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>61300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>33100</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>435600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>409400</v>
+      </c>
+      <c r="F46" s="3">
         <v>621200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>399800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>355200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>371800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>715600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>430400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>330300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>476000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>357300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>379800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>330100</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2060,46 +2269,58 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>7589400</v>
+      </c>
+      <c r="E48" s="3">
+        <v>7480700</v>
+      </c>
+      <c r="F48" s="3">
         <v>7283900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>7080400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>6947900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>6781500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>6432900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>6193300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>6088500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>5926200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>5764900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>5586500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>5503900</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2136,8 +2357,14 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2401,14 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,46 +2445,58 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1379100</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1387400</v>
+      </c>
+      <c r="F52" s="3">
         <v>1397500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>1350300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>1343900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>1258100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>1229700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>1226000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1209000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>1203800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>1560500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>1540800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>1489000</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,46 +2533,58 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9404100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>9277500</v>
+      </c>
+      <c r="F54" s="3">
         <v>9302600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>8830500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>8647000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>8411400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>8378200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>7849700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>7627800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>7606000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>7682700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>7507100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>7323000</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2599,10 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,46 +2617,54 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>233600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>207000</v>
+      </c>
+      <c r="F57" s="3">
         <v>330700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>259800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>227300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>333700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>279000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>203400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>219100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>270400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>281000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>163800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>149200</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2405,189 +2672,219 @@
         <v>200000</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="F58" s="3">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>50400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>250000</v>
-      </c>
-      <c r="I58" s="3">
-        <v>350000</v>
-      </c>
-      <c r="J58" s="3">
-        <v>350000</v>
       </c>
       <c r="K58" s="3">
         <v>350000</v>
       </c>
       <c r="L58" s="3">
+        <v>350000</v>
+      </c>
+      <c r="M58" s="3">
+        <v>350000</v>
+      </c>
+      <c r="N58" s="3">
         <v>104000</v>
       </c>
-      <c r="M58" s="3" t="s">
+      <c r="O58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>401500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>423500</v>
+      </c>
+      <c r="F59" s="3">
         <v>351900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>234600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>257600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>223000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>269700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>262300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>229800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>207300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>218000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>327100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>335300</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>835100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>830500</v>
+      </c>
+      <c r="F60" s="3">
         <v>882600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>494400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>484900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>607100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>798700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>815700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>798900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>827700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>603000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>490900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>493700</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2947900</v>
+      </c>
+      <c r="E61" s="3">
+        <v>2947300</v>
+      </c>
+      <c r="F61" s="3">
         <v>2946800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>2850500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>2667800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>2552300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>2551800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>2181800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>2102200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>2056000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>2095000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>2194500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>2154000</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2025700</v>
+      </c>
+      <c r="E62" s="3">
+        <v>2027900</v>
+      </c>
+      <c r="F62" s="3">
         <v>2029100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>2140500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>2152300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>2021300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>1989000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>1998100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>2012200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>2012600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>2352300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>2270700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>2228200</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2921,14 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2965,14 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,46 +3009,58 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5808700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>5805700</v>
+      </c>
+      <c r="F66" s="3">
         <v>5858500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>5485400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>5305000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>5180700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>5339500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>4995600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>4913300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>4896300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>5050300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>4956100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>4875900</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +3075,10 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +3115,14 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +3159,14 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3203,14 @@
       <c r="N70" s="3">
         <v>200000</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>200000</v>
+      </c>
+      <c r="P70" s="3">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,46 +3247,58 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>914200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>890600</v>
+      </c>
+      <c r="F72" s="3">
         <v>887900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>788900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>785800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>774500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>777500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>692900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>683300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>678500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>701200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>619800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>615900</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3335,14 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3379,14 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,46 +3423,58 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3395400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>3271800</v>
+      </c>
+      <c r="F76" s="3">
         <v>3244100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>3145100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>3142000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>3030700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>2838700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>2654100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>2514500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>2509700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>2432400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>2351000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>2247100</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3511,107 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>82600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>44700</v>
+      </c>
+      <c r="F81" s="3">
         <v>141100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>45000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>53300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>39100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>126500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>51700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>46700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>16400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>120400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>42800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,46 +3626,54 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>85900</v>
+      </c>
+      <c r="E83" s="3">
+        <v>83300</v>
+      </c>
+      <c r="F83" s="3">
         <v>83700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>82600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>77100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>74300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>73900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>70500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>64800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>64000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>66200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>61200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>53600</v>
       </c>
     </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3710,14 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3754,14 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3798,14 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3842,14 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,46 +3886,58 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>25100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>34400</v>
+      </c>
+      <c r="F89" s="3">
         <v>49500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>12300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>76700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-43900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>365600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-261500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-65200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-30600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>202600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>91700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>176300</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,46 +3952,54 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-165000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-323300</v>
+      </c>
+      <c r="F91" s="3">
         <v>-246800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-188200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-261300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-355500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-244100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-172900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-218200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-205900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-179900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-162600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-127600</v>
       </c>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +4036,14 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,46 +4080,58 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-52900</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-182900</v>
+      </c>
+      <c r="F94" s="3">
         <v>-129600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-132700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-221800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-100500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-489300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>104800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>55600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-182300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>246300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-384300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>78400</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,25 +4146,27 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-59000</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-42000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-42100</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-41900</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-42000</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-42100</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-41900</v>
       </c>
       <c r="I96" s="3">
         <v>-42100</v>
@@ -3708,19 +4175,25 @@
         <v>-41900</v>
       </c>
       <c r="K96" s="3">
+        <v>-42100</v>
+      </c>
+      <c r="L96" s="3">
+        <v>-41900</v>
+      </c>
+      <c r="M96" s="3">
         <v>-39100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-39000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-38900</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-39100</v>
       </c>
     </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +4230,14 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4274,14 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,46 +4318,58 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>43500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-27500</v>
+      </c>
+      <c r="F100" s="3">
         <v>259000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>119900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>139600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-79500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>354700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>155500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>8900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>242300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-14200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>77800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-39200</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3909,42 +4406,54 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-176000</v>
+      </c>
+      <c r="F102" s="3">
         <v>178900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-5500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-223900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>231000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-1200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>2500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IPLDP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IPLDP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>IPLDP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,219 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>431900</v>
+      </c>
+      <c r="E8" s="3">
         <v>518900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>496800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>596500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>441200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>555100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>494100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>547600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>474800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>525800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>472200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>527400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>420200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>450500</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>239900</v>
+      </c>
+      <c r="E9" s="3">
         <v>321500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>317700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>324700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>268900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>387900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>351200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>316300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>315100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>371500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>345100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>313000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>277600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>333900</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>192000</v>
+      </c>
+      <c r="E10" s="3">
         <v>197400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>179100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>271800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>172300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>167200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>142900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>231300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>159700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>154300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>127100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>214400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>142600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>116600</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +986,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,52 +1033,58 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>88700</v>
+      </c>
+      <c r="E15" s="3">
         <v>85900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>83300</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>83700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>82600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>77100</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>74300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>73900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>70500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>64800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>64000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>66200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>61200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>53600</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>343200</v>
+      </c>
+      <c r="E17" s="3">
         <v>422200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>415500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>423000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>366700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>481600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>439700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>404500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>397100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>450200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>423000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>393600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>352100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>400900</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>88700</v>
+      </c>
+      <c r="E18" s="3">
         <v>96700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>81300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>173500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>74500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>73500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>54400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>143100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>77700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>75600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>49200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>133800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>68100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>49600</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,228 +1211,244 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-800</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-1900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>176400</v>
+      </c>
+      <c r="E21" s="3">
         <v>181700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>163100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>255200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>155600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>148700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>128100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>216500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>147500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>139600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>113200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>198100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>127700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>103100</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>29200</v>
+      </c>
+      <c r="E22" s="3">
         <v>24700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>19400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>20900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>23600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>13600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>14900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>19400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>20500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>22400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>22600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>23200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>21800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>13400</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>58500</v>
+      </c>
+      <c r="E23" s="3">
         <v>71100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>60400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>150600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>49400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>58000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>38900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>123200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>56500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>52400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>26600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>108700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>44700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>36100</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E24" s="3">
         <v>-14100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>13200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>6900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-2300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-5900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>3100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>6000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-14300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>62300</v>
+      </c>
+      <c r="E26" s="3">
         <v>85200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>47200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>143700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>47500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>55900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>41200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>129100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>54200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>49300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>20600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>123000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>45300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>39800</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>59800</v>
+      </c>
+      <c r="E27" s="3">
         <v>82600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>44700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>141100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>45000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>53300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>38700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>126500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>51700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>46700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>18100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>120400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>42800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,19 +1632,22 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1594,11 +1655,11 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="3">
         <v>400</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1606,11 +1667,11 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>-1700</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1773,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E32" s="3">
         <v>900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>800</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>1900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>59800</v>
+      </c>
+      <c r="E33" s="3">
         <v>82600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>44700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>141100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>45000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>53300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>39100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>126500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>51700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>46700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>16400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>120400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>42800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>59800</v>
+      </c>
+      <c r="E35" s="3">
         <v>82600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>44700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>141100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>45000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>53300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>39100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>126500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>51700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>46700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>16400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>120400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>42800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2053,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>203500</v>
+      </c>
+      <c r="E41" s="3">
         <v>25000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>9300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>184000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>9700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>232700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,184 +2145,199 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>208900</v>
+      </c>
+      <c r="E43" s="3">
         <v>204800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>202800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>258300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>231700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>209500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>153500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>277300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>237200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>145900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>264900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>143500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>194700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>177200</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>125600</v>
+      </c>
+      <c r="E44" s="3">
         <v>123000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>123800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>122200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>107600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>93500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>126300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>127300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>122200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>120200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>133300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>130900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>119800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>115700</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>86500</v>
+      </c>
+      <c r="E45" s="3">
         <v>82800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>73500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>56700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>55500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>48300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>82300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>78300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>69400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>61300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>74200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>78200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>61300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>33100</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>624500</v>
+      </c>
+      <c r="E46" s="3">
         <v>435600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>409400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>621200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>399800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>355200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>371800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>715600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>430400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>330300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>476000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>357300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>379800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>330100</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,52 +2380,58 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>7666300</v>
+      </c>
+      <c r="E48" s="3">
         <v>7589400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>7480700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>7283900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>7080400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>6947900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>6781500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>6432900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6193300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6088500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5926200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5764900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5586500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5503900</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2474,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2568,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1388800</v>
+      </c>
+      <c r="E52" s="3">
         <v>1379100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1387400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1397500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1350300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1343900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1258100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1229700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1226000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1209000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1203800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1560500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1540800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1489000</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2662,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9679600</v>
+      </c>
+      <c r="E54" s="3">
         <v>9404100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>9277500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>9302600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>8830500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>8647000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>8411400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>8378200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7849700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7627800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7606000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7682700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7507100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7323000</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,57 +2749,61 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>207300</v>
+      </c>
+      <c r="E57" s="3">
         <v>233600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>207000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>330700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>259800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>227300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>333700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>279000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>203400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>219100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>270400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>281000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>163800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>149200</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
         <v>200000</v>
@@ -2678,19 +2812,19 @@
         <v>200000</v>
       </c>
       <c r="G58" s="3">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>50400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>250000</v>
-      </c>
-      <c r="K58" s="3">
-        <v>350000</v>
       </c>
       <c r="L58" s="3">
         <v>350000</v>
@@ -2699,192 +2833,207 @@
         <v>350000</v>
       </c>
       <c r="N58" s="3">
+        <v>350000</v>
+      </c>
+      <c r="O58" s="3">
         <v>104000</v>
       </c>
-      <c r="O58" s="3" t="s">
+      <c r="P58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>424900</v>
+      </c>
+      <c r="E59" s="3">
         <v>401500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>423500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>351900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>234600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>257600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>223000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>269700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>262300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>229800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>207300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>218000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>327100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>335300</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>632200</v>
+      </c>
+      <c r="E60" s="3">
         <v>835100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>830500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>882600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>494400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>484900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>607100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>798700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>815700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>798900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>827700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>603000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>490900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>493700</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3343500</v>
+      </c>
+      <c r="E61" s="3">
         <v>2947900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2947300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2946800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2850500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2667800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2552300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2551800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2181800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2102200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2056000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2095000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2194500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2154000</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2032800</v>
+      </c>
+      <c r="E62" s="3">
         <v>2025700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2027900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2029100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2140500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2152300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2021300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1989000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1998100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2012200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2012600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2352300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2270700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2228200</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3170,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6008500</v>
+      </c>
+      <c r="E66" s="3">
         <v>5808700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5805700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5858500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5485400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5305000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5180700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5339500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4995600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4913300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4896300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5050300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4956100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4875900</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>200000</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>914900</v>
+      </c>
+      <c r="E72" s="3">
         <v>914200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>890600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>887900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>788900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>785800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>774500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>777500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>692900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>683300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>678500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>701200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>619800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>615900</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3471100</v>
+      </c>
+      <c r="E76" s="3">
         <v>3395400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3271800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3244100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3145100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3142000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3030700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2838700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2654100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2514500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2509700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2432400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2351000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2247100</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>59800</v>
+      </c>
+      <c r="E81" s="3">
         <v>82600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>44700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>141100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>45000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>53300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>39100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>126500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>51700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>46700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>16400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>120400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>42800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +3826,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>88700</v>
+      </c>
+      <c r="E83" s="3">
         <v>85900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>83300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>83700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>82600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>77100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>74300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>73900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>70500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>64800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>64000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>66200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>61200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>53600</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>52100</v>
+      </c>
+      <c r="E89" s="3">
         <v>25100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>34400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>49500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>12300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>76700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-43900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>365600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-261500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-65200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-30600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>202600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>91700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>176300</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4174,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-144600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-165000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-323300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-246800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-188200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-261300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-355500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-244100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-172900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-218200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-205900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-179900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-162600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-127600</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4313,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-72300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-52900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-182900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-129600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-132700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-221800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-100500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-489300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>104800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>55600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-182300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>246300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-384300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>78400</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,52 +4381,56 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-59100</v>
+      </c>
+      <c r="E96" s="3">
         <v>-59000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-42000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-42100</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-41900</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-42000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-42100</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-41900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-42100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-41900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-39100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-39000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-38900</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-39100</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4567,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>198700</v>
+      </c>
+      <c r="E100" s="3">
         <v>43500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-27500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>259000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>119900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>139600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-79500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>354700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>155500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>8900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>242300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-14200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>77800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-39200</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4661,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>178500</v>
+      </c>
+      <c r="E102" s="3">
         <v>15700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-176000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>178900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-5500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-223900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>231000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IPLDP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IPLDP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>IPLDP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,232 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>553000</v>
+      </c>
+      <c r="E8" s="3">
         <v>431900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>518900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>496800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>596500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>441200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>555100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>494100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>547600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>474800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>525800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>472200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>527400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>420200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>450500</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>286000</v>
+      </c>
+      <c r="E9" s="3">
         <v>239900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>321500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>317700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>324700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>268900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>387900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>351200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>316300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>315100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>371500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>345100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>313000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>277600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>333900</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>267000</v>
+      </c>
+      <c r="E10" s="3">
         <v>192000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>197400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>179100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>271800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>172300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>167200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>142900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>231300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>159700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>154300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>127100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>214400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>142600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>116600</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,8 +908,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -942,8 +956,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1006,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1036,55 +1056,61 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>89000</v>
+      </c>
+      <c r="E15" s="3">
         <v>88700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>85900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>83300</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>83700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>82600</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>77100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>74300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>73900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>70500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>64800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>64000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>66200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>61200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>53600</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1125,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>391000</v>
+      </c>
+      <c r="E17" s="3">
         <v>343200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>422200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>415500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>423000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>366700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>481600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>439700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>404500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>397100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>450200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>423000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>393600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>352100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>400900</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>162000</v>
+      </c>
+      <c r="E18" s="3">
         <v>88700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>96700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>81300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>173500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>74500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>73500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>54400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>143100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>77700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>75600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>49200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>133800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>68100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>49600</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1245,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1221,234 +1255,249 @@
         <v>-1000</v>
       </c>
       <c r="E20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F20" s="3">
         <v>-900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-800</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-1900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>250400</v>
+      </c>
+      <c r="E21" s="3">
         <v>176400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>181700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>163100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>255200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>155600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>148700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>128100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>216500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>147500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>139600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>113200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>198100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>127700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>103100</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E22" s="3">
         <v>29200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>24700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>19400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>20900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>23600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>13600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>14900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>19400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>20500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>22400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>22600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>23200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>21800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>13400</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>132000</v>
+      </c>
+      <c r="E23" s="3">
         <v>58500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>71100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>60400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>150600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>49400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>58000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>38900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>123200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>56500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>52400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>26600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>108700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>44700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>36100</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-3800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-14100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>13200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>6900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-2300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-5900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>3100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>6000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-14300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>151000</v>
+      </c>
+      <c r="E26" s="3">
         <v>62300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>85200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>47200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>143700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>47500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>55900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>41200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>129100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>54200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>49300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>20600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>123000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>45300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>39800</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>148000</v>
+      </c>
+      <c r="E27" s="3">
         <v>59800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>82600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>44700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>141100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>45000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>53300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>38700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>126500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>51700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>46700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>18100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>120400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>42800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1646,11 +1707,11 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1658,11 +1719,11 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="3">
         <v>400</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -1670,11 +1731,11 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>-1700</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1843,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1785,93 +1855,99 @@
         <v>1000</v>
       </c>
       <c r="E32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F32" s="3">
         <v>900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>800</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>1900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>148000</v>
+      </c>
+      <c r="E33" s="3">
         <v>59800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>82600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>44700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>141100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>45000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>53300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>39100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>126500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>51700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>46700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>16400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>120400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>42800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>148000</v>
+      </c>
+      <c r="E35" s="3">
         <v>59800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>82600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>44700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>141100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>45000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>53300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>39100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>126500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>51700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>46700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>16400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>120400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>42800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,55 +2140,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>185000</v>
+      </c>
+      <c r="E41" s="3">
         <v>203500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>25000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>9300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>184000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>9700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>232700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,196 +2238,211 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>219000</v>
+      </c>
+      <c r="E43" s="3">
         <v>208900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>204800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>202800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>258300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>231700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>209500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>153500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>277300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>237200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>145900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>264900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>143500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>194700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>177200</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>129000</v>
+      </c>
+      <c r="E44" s="3">
         <v>125600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>123000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>123800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>122200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>107600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>93500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>126300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>127300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>122200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>120200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>133300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>130900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>119800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>115700</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>105000</v>
+      </c>
+      <c r="E45" s="3">
         <v>86500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>82800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>73500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>56700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>55500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>48300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>82300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>78300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>69400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>61300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>74200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>78200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>61300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>33100</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>638000</v>
+      </c>
+      <c r="E46" s="3">
         <v>624500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>435600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>409400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>621200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>399800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>355200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>371800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>715600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>430400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>330300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>476000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>357300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>379800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>330100</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,55 +2488,61 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>7818000</v>
+      </c>
+      <c r="E48" s="3">
         <v>7666300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>7589400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>7480700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>7283900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>7080400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>6947900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>6781500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6432900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6193300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6088500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5926200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5764900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5586500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5503900</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2477,8 +2588,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,55 +2688,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1402000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1388800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1379100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1387400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1397500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1350300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1343900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1258100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1229700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1226000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1209000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1203800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1560500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1540800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1489000</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2788,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9858000</v>
+      </c>
+      <c r="E54" s="3">
         <v>9679600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>9404100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>9277500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>9302600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>8830500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>8647000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>8411400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8378200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7849700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7627800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7606000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7682700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7507100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7323000</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,55 +2880,59 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>231000</v>
+      </c>
+      <c r="E57" s="3">
         <v>207300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>233600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>207000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>330700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>259800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>227300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>333700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>279000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>203400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>219100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>270400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>281000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>163800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>149200</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2806,7 +2940,7 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
         <v>200000</v>
@@ -2815,19 +2949,19 @@
         <v>200000</v>
       </c>
       <c r="H58" s="3">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>50400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>250000</v>
-      </c>
-      <c r="L58" s="3">
-        <v>350000</v>
       </c>
       <c r="M58" s="3">
         <v>350000</v>
@@ -2836,204 +2970,219 @@
         <v>350000</v>
       </c>
       <c r="O58" s="3">
+        <v>350000</v>
+      </c>
+      <c r="P58" s="3">
         <v>104000</v>
       </c>
-      <c r="P58" s="3" t="s">
+      <c r="Q58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>315000</v>
+      </c>
+      <c r="E59" s="3">
         <v>424900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>401500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>423500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>351900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>234600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>257600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>223000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>269700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>262300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>229800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>207300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>218000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>327100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>335300</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>546000</v>
+      </c>
+      <c r="E60" s="3">
         <v>632200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>835100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>830500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>882600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>494400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>484900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>607100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>798700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>815700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>798900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>827700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>603000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>490900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>493700</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3344000</v>
+      </c>
+      <c r="E61" s="3">
         <v>3343500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2947900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2947300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2946800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2850500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2667800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2552300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2551800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2181800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2102200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2056000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2095000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2194500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2154000</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2038000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2032800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2025700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2027900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2029100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2140500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2152300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2021300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1989000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1998100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2012200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2012600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2352300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2270700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2228200</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3328,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5928000</v>
+      </c>
+      <c r="E66" s="3">
         <v>6008500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5808700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5805700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5858500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5485400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5305000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5180700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5339500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4995600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4913300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4896300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5050300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4956100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4875900</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>200000</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3598,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1004000</v>
+      </c>
+      <c r="E72" s="3">
         <v>914900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>914200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>890600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>887900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>788900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>785800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>774500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>777500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>692900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>683300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>678500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>701200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>619800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>615900</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3798,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3730000</v>
+      </c>
+      <c r="E76" s="3">
         <v>3471100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3395400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3271800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3244100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3145100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3142000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3030700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2838700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2654100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2514500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2509700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2432400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2351000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2247100</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>148000</v>
+      </c>
+      <c r="E81" s="3">
         <v>59800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>82600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>44700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>141100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>45000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>53300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>39100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>126500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>51700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>46700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>16400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>120400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>42800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,55 +4025,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>89400</v>
+      </c>
+      <c r="E83" s="3">
         <v>88700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>85900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>83300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>83700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>82600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>77100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>74300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>73900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>70500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>64800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>64000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>66200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>61200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>53600</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4323,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-58200</v>
+      </c>
+      <c r="E89" s="3">
         <v>52100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>25100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>34400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>49500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>12300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>76700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-43900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>365600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-261500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-65200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-30600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>202600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>91700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>176300</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,55 +4395,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-155400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-144600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-165000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-323300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-246800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-188200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-261300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-355500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-244100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-172900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-218200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-205900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-179900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-162600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-127600</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4543,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-76800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-72300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-52900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-182900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-129600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-132700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-221800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-100500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-489300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>104800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>55600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-182300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>246300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-384300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>78400</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,55 +4615,59 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-58900</v>
+      </c>
+      <c r="E96" s="3">
         <v>-59100</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-59000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-42000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-42100</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-41900</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-42000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-42100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-41900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-42100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-41900</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-39100</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-39000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-38900</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-39100</v>
       </c>
     </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,55 +4813,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>116800</v>
+      </c>
+      <c r="E100" s="3">
         <v>198700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>43500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-27500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>259000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>119900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>139600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-79500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>354700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>155500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>8900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>242300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-14200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>77800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-39200</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,51 +4913,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-18200</v>
+      </c>
+      <c r="E102" s="3">
         <v>178500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>15700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-176000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>178900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-5500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-223900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>231000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IPLDP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IPLDP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>IPLDP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,232 +665,244 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>443000</v>
+      </c>
+      <c r="E8" s="3">
         <v>553000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>431900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>518900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>496800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>596500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>441200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>555100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>494100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>547600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>474800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>525800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>472200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>527400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>420200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>450500</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>276000</v>
+      </c>
+      <c r="E9" s="3">
         <v>286000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>239900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>321500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>317700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>324700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>268900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>387900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>351200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>316300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>315100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>371500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>345100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>313000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>277600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>333900</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>167000</v>
+      </c>
+      <c r="E10" s="3">
         <v>267000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>192000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>197400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>179100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>271800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>172300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>167200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>142900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>231300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>159700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>154300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>127100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>214400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>142600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>116600</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -909,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -959,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1059,58 +1078,64 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>92000</v>
+      </c>
+      <c r="E15" s="3">
         <v>89000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>88700</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>85900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>83300</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>83700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>82600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>77100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>74300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>73900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>70500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>64800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>64000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>66200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>61200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>53600</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>380000</v>
+      </c>
+      <c r="E17" s="3">
         <v>391000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>343200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>422200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>415500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>423000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>366700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>481600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>439700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>404500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>397100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>450200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>423000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>393600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>352100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>400900</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>63000</v>
+      </c>
+      <c r="E18" s="3">
         <v>162000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>88700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>96700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>81300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>173500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>74500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>73500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>54400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>143100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>77700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>75600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>49200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>133800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>68100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>49600</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,258 +1278,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1000</v>
+        <v>-5000</v>
       </c>
       <c r="E20" s="3">
         <v>-1000</v>
       </c>
       <c r="F20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G20" s="3">
         <v>-900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-800</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>150000</v>
+      </c>
+      <c r="E21" s="3">
         <v>250400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>176400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>181700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>163100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>255200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>155600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>148700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>128100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>216500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>147500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>139600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>113200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>198100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>127700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>103100</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>32000</v>
+      </c>
+      <c r="E22" s="3">
         <v>29000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>29200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>24700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>19400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>20900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>23600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>13600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>14900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>19400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>20500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>22400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>22600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>23200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>21800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>13400</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E23" s="3">
         <v>132000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>58500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>71100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>60400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>150600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>49400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>58000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>38900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>123200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>56500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>52400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>26600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>108700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>44700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>36100</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-19000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-3800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-14100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>13200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>6900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-2300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-5900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>3100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>6000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-14300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E26" s="3">
         <v>151000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>62300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>85200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>47200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>143700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>47500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>55900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>41200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>129100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>54200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>49300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>20600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>123000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>45300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>39800</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E27" s="3">
         <v>148000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>59800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>82600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>44700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>141100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>45000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>53300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>38700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>126500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>51700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>46700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>18100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>120400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>42800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,13 +1753,16 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>8</v>
@@ -1710,11 +1770,11 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1722,11 +1782,11 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3">
         <v>400</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -1734,11 +1794,11 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3">
         <v>-1700</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -1746,8 +1806,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="E32" s="3">
         <v>1000</v>
       </c>
       <c r="F32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G32" s="3">
         <v>900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>800</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>1900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E33" s="3">
         <v>148000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>59800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>82600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>44700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>141100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>45000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>53300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>39100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>126500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>51700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>46700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>16400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>120400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>42800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E35" s="3">
         <v>148000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>59800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>82600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>44700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>141100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>45000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>53300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>39100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>126500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>51700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>46700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>16400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>120400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>42800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E41" s="3">
         <v>185000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>203500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>25000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>9300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>184000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>9700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>232700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,208 +2330,223 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>236000</v>
+      </c>
+      <c r="E43" s="3">
         <v>219000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>208900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>204800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>202800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>258300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>231700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>209500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>153500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>277300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>237200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>145900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>264900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>143500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>194700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>177200</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>131000</v>
+      </c>
+      <c r="E44" s="3">
         <v>129000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>125600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>123000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>123800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>122200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>107600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>93500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>126300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>127300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>122200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>120200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>133300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>130900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>119800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>115700</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>79000</v>
+      </c>
+      <c r="E45" s="3">
         <v>105000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>86500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>82800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>73500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>56700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>55500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>48300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>82300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>78300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>69400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>61300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>74200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>78200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>61300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>33100</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>496000</v>
+      </c>
+      <c r="E46" s="3">
         <v>638000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>624500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>435600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>409400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>621200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>399800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>355200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>371800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>715600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>430400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>330300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>476000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>357300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>379800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>330100</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2491,58 +2595,64 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>7889000</v>
+      </c>
+      <c r="E48" s="3">
         <v>7818000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>7666300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>7589400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>7480700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>7283900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>7080400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>6947900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6781500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6432900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6193300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6088500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5926200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5764900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5586500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5503900</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2591,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1464000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1402000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1388800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1379100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1387400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1397500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1350300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1343900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1258100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1229700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1226000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1209000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1203800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1560500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1540800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1489000</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9849000</v>
+      </c>
+      <c r="E54" s="3">
         <v>9858000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>9679600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>9404100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>9277500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>9302600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>8830500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>8647000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8411400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8378200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7849700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7627800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7606000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7682700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7507100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7323000</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,58 +3010,62 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>207000</v>
+      </c>
+      <c r="E57" s="3">
         <v>231000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>207300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>233600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>207000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>330700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>259800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>227300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>333700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>279000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>203400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>219100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>270400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>281000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>163800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>149200</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2943,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
         <v>200000</v>
@@ -2952,19 +3085,19 @@
         <v>200000</v>
       </c>
       <c r="I58" s="3">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>50400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>250000</v>
-      </c>
-      <c r="M58" s="3">
-        <v>350000</v>
       </c>
       <c r="N58" s="3">
         <v>350000</v>
@@ -2973,216 +3106,231 @@
         <v>350000</v>
       </c>
       <c r="P58" s="3">
+        <v>350000</v>
+      </c>
+      <c r="Q58" s="3">
         <v>104000</v>
       </c>
-      <c r="Q58" s="3" t="s">
+      <c r="R58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>240000</v>
+      </c>
+      <c r="E59" s="3">
         <v>315000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>424900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>401500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>423500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>351900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>234600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>257600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>223000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>269700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>262300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>229800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>207300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>218000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>327100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>335300</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>447000</v>
+      </c>
+      <c r="E60" s="3">
         <v>546000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>632200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>835100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>830500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>882600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>494400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>484900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>607100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>798700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>815700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>798900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>827700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>603000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>490900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>493700</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3345000</v>
+      </c>
+      <c r="E61" s="3">
         <v>3344000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3343500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2947900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2947300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2946800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2850500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2667800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2552300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2551800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2181800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2102200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2056000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2095000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2194500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2154000</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2093000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2038000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2032800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2025700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2027900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2029100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2140500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2152300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2021300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1989000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1998100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2012200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2012600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2352300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2270700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2228200</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5885000</v>
+      </c>
+      <c r="E66" s="3">
         <v>5928000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6008500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5808700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5805700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5858500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5485400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5305000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5180700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5339500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4995600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4913300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4896300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5050300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4956100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4875900</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3718,11 @@
       <c r="R70" s="3">
         <v>200000</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>979000</v>
+      </c>
+      <c r="E72" s="3">
         <v>1004000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>914900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>914200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>890600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>887900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>788900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>785800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>774500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>777500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>692900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>683300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>678500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>701200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>619800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>615900</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3764000</v>
+      </c>
+      <c r="E76" s="3">
         <v>3730000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3471100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3395400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3271800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3244100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3145100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3142000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3030700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2838700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2654100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2514500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2509700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2432400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2351000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2247100</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E81" s="3">
         <v>148000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>59800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>82600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>44700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>141100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>45000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>53300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>39100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>126500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>51700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>46700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>16400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>120400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>42800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>92000</v>
+      </c>
+      <c r="E83" s="3">
         <v>89400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>88700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>85900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>83300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>83700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>82600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>77100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>74300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>73900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>70500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>64800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>64000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>66200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>61200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>53600</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-58200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>52100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>25100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>34400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>49500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>12300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>76700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-43900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>365600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-261500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-65200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-30600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>202600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>91700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>176300</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-222000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-155400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-144600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-165000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-323300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-246800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-188200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-261300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-355500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-244100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-172900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-218200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-205900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-179900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-162600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-127600</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-99000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-76800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-72300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-52900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-182900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-129600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-132700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-221800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-100500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-489300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>104800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>55600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-182300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>246300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-384300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>78400</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,58 +4848,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-59000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-58900</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-59100</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-59000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-42000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-42100</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-41900</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-42000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-42100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-41900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-42100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-41900</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-39100</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-39000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-38900</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-39100</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,58 +5058,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E100" s="3">
         <v>116800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>198700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>43500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-27500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>259000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>119900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>139600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-79500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>354700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>155500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>8900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>242300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-14200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>77800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-39200</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,54 +5164,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-135000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-18200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>178500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>15700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-176000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>178900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-5500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-223900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>231000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IPLDP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IPLDP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
   <si>
     <t>IPLDP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,270 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>455000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>489000</v>
+      </c>
+      <c r="F8" s="3">
         <v>443000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>553000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>431900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>518900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>496800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>596500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>441200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>555100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>494100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>547600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>474800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>525800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>472200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>527400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>420200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>450500</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>237000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>278000</v>
+      </c>
+      <c r="F9" s="3">
         <v>276000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>286000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>239900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>321500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>317700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>324700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>268900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>387900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>351200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>316300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>315100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>371500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>345100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>313000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>277600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>333900</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>218000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>211000</v>
+      </c>
+      <c r="F10" s="3">
         <v>167000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>267000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>192000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>197400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>179100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>271800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>172300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>167200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>142900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>231300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>159700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>154300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>127100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>214400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>142600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>116600</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +948,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +1003,14 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1062,14 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,61 +1121,73 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>93000</v>
+      </c>
+      <c r="E15" s="3">
+        <v>94000</v>
+      </c>
+      <c r="F15" s="3">
         <v>92000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>89000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>88700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>85900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>83300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>83700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>82600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>77100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>74300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>73900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>70500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>64800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>64000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>66200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>61200</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>53600</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1204,128 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>344000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>386000</v>
+      </c>
+      <c r="F17" s="3">
         <v>380000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>391000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>343200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>422200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>415500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>423000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>366700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>481600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>439700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>404500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>397100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>450200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>423000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>393600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>352100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>400900</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>111000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>103000</v>
+      </c>
+      <c r="F18" s="3">
         <v>63000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>162000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>88700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>96700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>81300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>173500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>74500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>73500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>54400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>143100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>77700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>75600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>49200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>133800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>68100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>49600</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,220 +1345,246 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-5000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-1000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-900</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-2000</v>
       </c>
       <c r="J20" s="3">
         <v>-1500</v>
       </c>
       <c r="K20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="L20" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="M20" s="3">
         <v>-1900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-800</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-1900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-1600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>202000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>197000</v>
+      </c>
+      <c r="F21" s="3">
         <v>150000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>250400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>176400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>181700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>163100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>255200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>155600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>148700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>128100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>216500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>147500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>139600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>113200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>198100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>127700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>103100</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>33000</v>
+      </c>
+      <c r="F22" s="3">
         <v>32000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>29000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>29200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>24700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>19400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>20900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>23600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>13600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>14900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>19400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>20500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>22400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>22600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>23200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>21800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>13400</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>78000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>70000</v>
+      </c>
+      <c r="F23" s="3">
         <v>26000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>132000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>58500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>71100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>60400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>150600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>49400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>58000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>38900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>123200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>56500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>52400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>26600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>108700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>44700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>36100</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1500,52 +1592,58 @@
         <v>-10000</v>
       </c>
       <c r="E24" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="F24" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="G24" s="3">
         <v>-19000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-3800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-14100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>13200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>6900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>1900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>2100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-2300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-5900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>2300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>3100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>6000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>-14300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>-600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1695,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>88000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>82000</v>
+      </c>
+      <c r="F26" s="3">
         <v>36000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>151000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>62300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>85200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>47200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>143700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>47500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>55900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>41200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>129100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>54200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>49300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>20600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>123000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>45300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>39800</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>86000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>79000</v>
+      </c>
+      <c r="F27" s="3">
         <v>34000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>148000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>59800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>82600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>44700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>141100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>45000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>53300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>38700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>126500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>51700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>46700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>18100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>120400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>42800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,61 +1872,73 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
+      <c r="F29" s="3">
+        <v>0</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
-        <v>400</v>
+      <c r="L29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
+      <c r="N29" s="3">
+        <v>400</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
-        <v>-1700</v>
+      <c r="P29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
+      <c r="R29" s="3">
+        <v>-1700</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1990,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +2049,132 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>5000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>1000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>900</v>
-      </c>
-      <c r="H32" s="3">
-        <v>1500</v>
-      </c>
-      <c r="I32" s="3">
-        <v>2000</v>
       </c>
       <c r="J32" s="3">
         <v>1500</v>
       </c>
       <c r="K32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L32" s="3">
+        <v>1500</v>
+      </c>
+      <c r="M32" s="3">
         <v>1900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>800</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>1900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>1600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>86000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>79000</v>
+      </c>
+      <c r="F33" s="3">
         <v>34000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>148000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>59800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>82600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>44700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>141100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>45000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>53300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>39100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>126500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>51700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>46700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>16400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>120400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>42800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2226,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>86000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>79000</v>
+      </c>
+      <c r="F35" s="3">
         <v>34000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>148000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>59800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>82600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>44700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>141100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>45000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>53300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>39100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>126500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>51700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>46700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>16400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>120400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>42800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2376,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2399,69 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>11000</v>
+      </c>
+      <c r="F41" s="3">
         <v>50000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>185000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>203500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>25000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>9300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>184000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>5000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>3900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>9700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>232700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>2900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>3600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>4700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>4000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,220 +2513,250 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>197000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>130000</v>
+      </c>
+      <c r="F43" s="3">
         <v>236000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>219000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>208900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>204800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>202800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>258300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>231700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>209500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>153500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>277300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>237200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>145900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>264900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>143500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>194700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>177200</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>122000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>126000</v>
+      </c>
+      <c r="F44" s="3">
         <v>131000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>129000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>125600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>123000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>123800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>122200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>107600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>93500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>126300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>127300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>122200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>120200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>133300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>130900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>119800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>115700</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>125000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>126000</v>
+      </c>
+      <c r="F45" s="3">
         <v>79000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>105000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>86500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>82800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>73500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>56700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>55500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>48300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>82300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>78300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>69400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>61300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>74200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>78200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>61300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>33100</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>455000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>393000</v>
+      </c>
+      <c r="F46" s="3">
         <v>496000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>638000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>624500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>435600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>409400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>621200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>399800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>355200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>371800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>715600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>430400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>330300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>476000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>357300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>379800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>330100</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,61 +2808,73 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>7907000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>7872000</v>
+      </c>
+      <c r="F48" s="3">
         <v>7889000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>7818000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>7666300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>7589400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>7480700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>7283900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>7080400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>6947900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>6781500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>6432900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>6193300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>6088500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>5926200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>5764900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>5586500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>5503900</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2926,14 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2985,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +3044,73 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1463000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1461000</v>
+      </c>
+      <c r="F52" s="3">
         <v>1464000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>1402000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>1388800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>1379100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>1387400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>1397500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1350300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>1343900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>1258100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>1229700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>1226000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>1209000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>1203800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>1560500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>1540800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>1489000</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3162,73 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9825000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>9726000</v>
+      </c>
+      <c r="F54" s="3">
         <v>9849000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>9858000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>9679600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>9404100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>9277500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>9302600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>8830500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>8647000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>8411400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>8378200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>7849700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>7627800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>7606000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>7682700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>7507100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>7323000</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3248,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,326 +3271,364 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>126000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>119000</v>
+      </c>
+      <c r="F57" s="3">
         <v>207000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>231000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>207300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>233600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>207000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>330700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>259800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>227300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>333700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>279000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>203400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>219100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>270400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>281000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>163800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>149200</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3">
         <v>200000</v>
       </c>
       <c r="J58" s="3">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="K58" s="3">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>50400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>250000</v>
-      </c>
-      <c r="N58" s="3">
-        <v>350000</v>
-      </c>
-      <c r="O58" s="3">
-        <v>350000</v>
       </c>
       <c r="P58" s="3">
         <v>350000</v>
       </c>
       <c r="Q58" s="3">
+        <v>350000</v>
+      </c>
+      <c r="R58" s="3">
+        <v>350000</v>
+      </c>
+      <c r="S58" s="3">
         <v>104000</v>
       </c>
-      <c r="R58" s="3" t="s">
+      <c r="T58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>244000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>218000</v>
+      </c>
+      <c r="F59" s="3">
         <v>240000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>315000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>424900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>401500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>423500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>351900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>234600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>257600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>223000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>269700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>262300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>229800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>207300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>218000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>327100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>335300</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>370000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>337000</v>
+      </c>
+      <c r="F60" s="3">
         <v>447000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>546000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>632200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>835100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>830500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>882600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>494400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>484900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>607100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>798700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>815700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>798900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>827700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>603000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>490900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>493700</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3346000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>3346000</v>
+      </c>
+      <c r="F61" s="3">
         <v>3345000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>3344000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>3343500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>2947900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>2947300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>2946800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>2850500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>2667800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>2552300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>2551800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>2181800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>2102200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>2056000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>2095000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>2194500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>2154000</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2130000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>2101000</v>
+      </c>
+      <c r="F62" s="3">
         <v>2093000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>2038000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>2032800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>2025700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>2027900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>2029100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>2140500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>2152300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>2021300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>1989000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>1998100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>2012200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>2012600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>2352300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>2270700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>2228200</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3680,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3739,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3798,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5846000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>5784000</v>
+      </c>
+      <c r="F66" s="3">
         <v>5885000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>5928000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>6008500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>5808700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>5805700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>5858500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>5485400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>5305000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>5180700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>5339500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>4995600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>4913300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>4896300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>5050300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>4956100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>4875900</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3884,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3939,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3998,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +4057,14 @@
       <c r="S70" s="3">
         <v>200000</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>200000</v>
+      </c>
+      <c r="U70" s="3">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +4116,73 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>944000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>957000</v>
+      </c>
+      <c r="F72" s="3">
         <v>979000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>1004000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>914900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>914200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>890600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>887900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>788900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>785800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>774500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>777500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>692900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>683300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>678500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>701200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>619800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>615900</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4234,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4293,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4352,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3779000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>3742000</v>
+      </c>
+      <c r="F76" s="3">
         <v>3764000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>3730000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>3471100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>3395400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>3271800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>3244100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>3145100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>3142000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>3030700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>2838700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>2654100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>2514500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>2509700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>2432400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>2351000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>2247100</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4470,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>86000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>79000</v>
+      </c>
+      <c r="F81" s="3">
         <v>34000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>148000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>59800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>82600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>44700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>141100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>45000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>53300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>39100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>126500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>51700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>46700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>16400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>120400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>42800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4620,69 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>93000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>94000</v>
+      </c>
+      <c r="F83" s="3">
         <v>92000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>89400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>88700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>85900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>83300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>83700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>82600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>77100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>74300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>73900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>70500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>64800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>64000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>66200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>61200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>53600</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4734,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4793,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4852,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4911,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4970,73 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>63000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-45000</v>
+      </c>
+      <c r="F89" s="3">
         <v>-25000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-58200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>52100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>25100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>34400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>49500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>12300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>76700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-43900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>365600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-261500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-65200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-30600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>202600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>91700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>176300</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +5056,69 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-85000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-106000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-222000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-155400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-144600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-165000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-323300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-246800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-188200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-261300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-355500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-244100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-172900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-218200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-205900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-179900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-162600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-127600</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +5170,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5229,73 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>98000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-99000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-76800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-72300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-52900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-182900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-129600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-132700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-221800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-100500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-489300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>104800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>55600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-182300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>246300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-384300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>78400</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,40 +5315,42 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-99000</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-101000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-59000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-58900</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-59100</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-59000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-42000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-42100</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-41900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-42000</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-42100</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-41900</v>
       </c>
       <c r="N96" s="3">
         <v>-42100</v>
@@ -4891,19 +5359,25 @@
         <v>-41900</v>
       </c>
       <c r="P96" s="3">
+        <v>-42100</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>-41900</v>
+      </c>
+      <c r="R96" s="3">
         <v>-39100</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-39000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-38900</v>
       </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
         <v>-39100</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5429,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5488,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5547,73 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-63000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-92000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-11000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>116800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>198700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>43500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-27500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>259000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>119900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>139600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-79500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>354700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>155500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>8900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>242300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-14200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>77800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-39200</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5665,69 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-39000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-135000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-18200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>178500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>15700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-176000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>178900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-5500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-223900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>231000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-1200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>2500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IPLDP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IPLDP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>IPLDP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,270 +665,283 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>599000</v>
+      </c>
+      <c r="E8" s="3">
         <v>455000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>489000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>443000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>553000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>431900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>518900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>496800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>596500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>441200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>555100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>494100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>547600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>474800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>525800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>472200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>527400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>420200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>450500</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>311000</v>
+      </c>
+      <c r="E9" s="3">
         <v>237000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>278000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>276000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>286000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>239900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>321500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>317700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>324700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>268900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>387900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>351200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>316300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>315100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>371500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>345100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>313000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>277600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>333900</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>288000</v>
+      </c>
+      <c r="E10" s="3">
         <v>218000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>211000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>167000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>267000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>192000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>197400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>179100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>271800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>172300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>167200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>142900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>231300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>159700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>154300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>127100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>214400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>142600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>116600</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +963,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1009,8 +1023,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,8 +1085,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1127,67 +1147,73 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>94000</v>
+      </c>
+      <c r="E15" s="3">
         <v>93000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>94000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>92000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>89000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>88700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>85900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>83300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>83700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>82600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>77100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>74300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>73900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>70500</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>64800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>64000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>66200</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>61200</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>53600</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1232,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>419000</v>
+      </c>
+      <c r="E17" s="3">
         <v>344000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>386000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>380000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>391000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>343200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>422200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>415500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>423000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>366700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>481600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>439700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>404500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>397100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>450200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>423000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>393600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>352100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>400900</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>180000</v>
+      </c>
+      <c r="E18" s="3">
         <v>111000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>103000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>63000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>162000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>88700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>96700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>81300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>173500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>74500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>73500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>54400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>143100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>77700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>75600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>49200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>133800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>68100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>49600</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,303 +1380,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2000</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-5000</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-1000</v>
       </c>
       <c r="H20" s="3">
         <v>-1000</v>
       </c>
       <c r="I20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J20" s="3">
         <v>-900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-800</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-1900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>274000</v>
+      </c>
+      <c r="E21" s="3">
         <v>202000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>197000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>150000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>250400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>176400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>181700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>163100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>255200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>155600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>148700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>128100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>216500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>147500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>139600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>113200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>198100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>127700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>103100</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>32000</v>
+      </c>
+      <c r="E22" s="3">
         <v>31000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>33000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>32000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>29000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>29200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>24700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>19400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>20900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>23600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>13600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>14900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>19400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>20500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>22400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>22600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>23200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>21800</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>13400</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>148000</v>
+      </c>
+      <c r="E23" s="3">
         <v>78000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>70000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>26000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>132000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>58500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>71100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>60400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>150600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>49400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>58000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>38900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>123200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>56500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>52400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>26600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>108700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>44700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>36100</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-10000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-12000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-10000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-19000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-3800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-14100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>13200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>6900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-2300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-5900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>3100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>6000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-14300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>160000</v>
+      </c>
+      <c r="E26" s="3">
         <v>88000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>82000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>36000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>151000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>62300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>85200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>47200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>143700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>47500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>55900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>41200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>129100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>54200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>49300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>20600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>123000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>45300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>39800</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>157000</v>
+      </c>
+      <c r="E27" s="3">
         <v>86000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>79000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>34000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>148000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>59800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>82600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>44700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>141100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>45000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>53300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>38700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>126500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>51700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>46700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>18100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>120400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>42800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1889,11 +1950,11 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1901,11 +1962,11 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3" t="s">
+      <c r="J29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -1913,11 +1974,11 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>400</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -1925,11 +1986,11 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3">
         <v>-1700</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,126 +2122,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>2000</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>5000</v>
-      </c>
-      <c r="G32" s="3">
-        <v>1000</v>
       </c>
       <c r="H32" s="3">
         <v>1000</v>
       </c>
       <c r="I32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J32" s="3">
         <v>900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>800</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>1900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>157000</v>
+      </c>
+      <c r="E33" s="3">
         <v>86000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>79000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>34000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>148000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>59800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>82600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>44700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>141100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>45000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>53300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>39100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>126500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>51700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>46700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>16400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>120400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>42800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>157000</v>
+      </c>
+      <c r="E35" s="3">
         <v>86000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>79000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>34000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>148000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>59800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>82600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>44700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>141100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>45000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>53300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>39100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>126500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>51700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>46700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>16400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>120400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>42800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,67 +2487,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="E41" s="3">
         <v>11000</v>
       </c>
       <c r="F41" s="3">
+        <v>11000</v>
+      </c>
+      <c r="G41" s="3">
         <v>50000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>185000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>203500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>25000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>9300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>184000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>9700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>232700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,244 +2609,259 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>205000</v>
+      </c>
+      <c r="E43" s="3">
         <v>197000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>130000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>236000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>219000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>208900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>204800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>202800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>258300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>231700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>209500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>153500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>277300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>237200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>145900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>264900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>143500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>194700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>177200</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>136000</v>
+      </c>
+      <c r="E44" s="3">
         <v>122000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>126000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>131000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>129000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>125600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>123000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>123800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>122200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>107600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>93500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>126300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>127300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>122200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>120200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>133300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>130900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>119800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>115700</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>194000</v>
+      </c>
+      <c r="E45" s="3">
         <v>125000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>126000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>79000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>105000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>86500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>82800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>73500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>56700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>55500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>48300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>82300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>78300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>69400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>61300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>74200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>78200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>61300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>33100</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>548000</v>
+      </c>
+      <c r="E46" s="3">
         <v>455000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>393000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>496000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>638000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>624500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>435600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>409400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>621200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>399800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>355200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>371800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>715600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>430400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>330300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>476000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>357300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>379800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>330100</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,67 +2919,73 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>7931000</v>
+      </c>
+      <c r="E48" s="3">
         <v>7907000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>7872000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>7889000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>7818000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>7666300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>7589400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>7480700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7283900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7080400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6947900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6781500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6432900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6193300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>6088500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5926200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5764900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>5586500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>5503900</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2932,8 +3043,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,67 +3167,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1499000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1463000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1461000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1464000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1402000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1388800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1379100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1387400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1397500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1350300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1343900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1258100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1229700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1226000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1209000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1203800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1560500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1540800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1489000</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3291,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9978000</v>
+      </c>
+      <c r="E54" s="3">
         <v>9825000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>9726000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>9849000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>9858000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>9679600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>9404100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>9277500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9302600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8830500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>8647000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>8411400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>8378200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7849700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7627800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7606000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>7682700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>7507100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>7323000</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,67 +3403,71 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>140000</v>
+      </c>
+      <c r="E57" s="3">
         <v>126000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>119000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>207000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>231000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>207300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>233600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>207000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>330700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>259800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>227300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>333700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>279000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>203400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>219100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>270400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>281000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>163800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>149200</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3343,8 +3477,8 @@
       <c r="E58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -3353,7 +3487,7 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3">
         <v>200000</v>
@@ -3362,19 +3496,19 @@
         <v>200000</v>
       </c>
       <c r="L58" s="3">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
       </c>
       <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
         <v>50400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>250000</v>
-      </c>
-      <c r="P58" s="3">
-        <v>350000</v>
       </c>
       <c r="Q58" s="3">
         <v>350000</v>
@@ -3383,252 +3517,267 @@
         <v>350000</v>
       </c>
       <c r="S58" s="3">
+        <v>350000</v>
+      </c>
+      <c r="T58" s="3">
         <v>104000</v>
       </c>
-      <c r="T58" s="3" t="s">
+      <c r="U58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>275000</v>
+      </c>
+      <c r="E59" s="3">
         <v>244000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>218000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>240000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>315000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>424900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>401500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>423500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>351900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>234600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>257600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>223000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>269700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>262300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>229800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>207300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>218000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>327100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>335300</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>415000</v>
+      </c>
+      <c r="E60" s="3">
         <v>370000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>337000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>447000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>546000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>632200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>835100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>830500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>882600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>494400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>484900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>607100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>798700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>815700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>798900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>827700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>603000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>490900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>493700</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3346000</v>
+        <v>3347000</v>
       </c>
       <c r="E61" s="3">
         <v>3346000</v>
       </c>
       <c r="F61" s="3">
+        <v>3346000</v>
+      </c>
+      <c r="G61" s="3">
         <v>3345000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3344000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3343500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2947900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2947300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2946800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2850500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2667800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2552300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2551800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2181800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2102200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2056000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2095000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2194500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2154000</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2181000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2130000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2101000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2093000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2038000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2032800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2025700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2027900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2029100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2140500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2152300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2021300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1989000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1998100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2012200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2012600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2352300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2270700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>2228200</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3959,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5943000</v>
+      </c>
+      <c r="E66" s="3">
         <v>5846000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5784000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5885000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5928000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6008500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5808700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5805700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5858500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5485400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5305000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5180700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5339500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4995600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4913300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4896300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5050300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4956100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4875900</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>200000</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4293,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="E72" s="3">
         <v>944000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>957000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>979000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1004000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>914900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>914200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>890600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>887900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>788900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>785800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>774500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>777500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>692900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>683300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>678500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>701200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>619800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>615900</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4541,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3835000</v>
+      </c>
+      <c r="E76" s="3">
         <v>3779000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3742000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3764000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3730000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3471100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3395400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3271800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3244100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3145100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3142000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3030700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2838700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2654100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2514500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2509700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2432400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2351000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2247100</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>157000</v>
+      </c>
+      <c r="E81" s="3">
         <v>86000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>79000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>34000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>148000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>59800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>82600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>44700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>141100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>45000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>53300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>39100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>126500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>51700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>46700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>16400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>120400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>42800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,67 +4820,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>94000</v>
+      </c>
+      <c r="E83" s="3">
         <v>93000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>94000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>92000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>89400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>88700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>85900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>83300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>83700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>82600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>77100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>74300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>73900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>70500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>64800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>64000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>66200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>61200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>53600</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5190,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>77000</v>
+      </c>
+      <c r="E89" s="3">
         <v>63000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-45000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-25000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-58200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>52100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>25100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>34400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>49500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>12300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>76700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-43900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>365600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-261500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-65200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-30600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>202600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>91700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>176300</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,67 +5278,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-94000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-85000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-106000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-222000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-155400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-144600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-165000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-323300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-246800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-188200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-261300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-355500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-244100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-172900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-218200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-205900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-179900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-162600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-127600</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,67 +5462,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>24000</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>98000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-99000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-76800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-72300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-52900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-182900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-129600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-132700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-221800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-100500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-489300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>104800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>55600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-182300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>246300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-384300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>78400</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,67 +5550,71 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-101000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-99000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-101000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-59000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-58900</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-59100</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-59000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-42000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-42100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-41900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-42000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-42100</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-41900</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-42100</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-41900</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-39100</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-39000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-38900</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-39100</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,67 +5796,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-99000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-63000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-92000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-11000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>116800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>198700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>43500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-27500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>259000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>119900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>139600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-79500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>354700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>155500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>8900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>242300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-14200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>77800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-39200</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,63 +5920,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-39000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-135000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-18200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>178500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>15700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-176000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>178900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-5500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-223900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>231000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>800</v>
       </c>
     </row>
